--- a/res.xlsx
+++ b/res.xlsx
@@ -2969,20 +2969,6 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="AF29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6 7 8 9 11 12 13 14 15 18 19 20 21 22 25 26 27 28 29 </t>
-        </is>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="inlineStr"/>
-    </row>
     <row r="30">
       <c r="G30" s="0" t="inlineStr">
         <is>
